--- a/Regresion.xlsx
+++ b/Regresion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geova\OneDrive\Escritorio\MetodosNumericos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D2133-519A-4B66-AF51-DF46FE28C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F45CFB9-B725-4C6E-9181-A30EA52F34AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,22 +20,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>MES</t>
   </si>
   <si>
-    <t>ANIO</t>
+    <t>ANIO1</t>
+  </si>
+  <si>
+    <t>ANIO2</t>
+  </si>
+  <si>
+    <t>ANIO3</t>
+  </si>
+  <si>
+    <t>ANIO4</t>
+  </si>
+  <si>
+    <t>ANIO5</t>
+  </si>
+  <si>
+    <t>ANIO6</t>
+  </si>
+  <si>
+    <t>ANIO7</t>
+  </si>
+  <si>
+    <t>ANIO8</t>
+  </si>
+  <si>
+    <t>ANIO9</t>
+  </si>
+  <si>
+    <t>ANIO10</t>
+  </si>
+  <si>
+    <t>ANIO11</t>
+  </si>
+  <si>
+    <t>ANIO12</t>
+  </si>
+  <si>
+    <t>ANIO13</t>
+  </si>
+  <si>
+    <t>ANIO14</t>
+  </si>
+  <si>
+    <t>ANIO15</t>
+  </si>
+  <si>
+    <t>ANIO16</t>
+  </si>
+  <si>
+    <t>ANIO17</t>
+  </si>
+  <si>
+    <t>ANIO18</t>
+  </si>
+  <si>
+    <t>ANIO19</t>
+  </si>
+  <si>
+    <t>ANIO20</t>
+  </si>
+  <si>
+    <t>ANIO21</t>
+  </si>
+  <si>
+    <t>ANIO22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,119 +434,915 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>14.41</v>
+      </c>
+      <c r="C2">
+        <v>12.94</v>
+      </c>
+      <c r="D2">
+        <v>15.8</v>
+      </c>
+      <c r="E2">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F2">
+        <v>19.09</v>
+      </c>
+      <c r="G2">
+        <v>22.65</v>
+      </c>
+      <c r="H2">
+        <v>22.99</v>
+      </c>
+      <c r="I2">
+        <v>28.89</v>
+      </c>
+      <c r="J2">
+        <v>21.58</v>
+      </c>
+      <c r="K2">
+        <v>28.36</v>
+      </c>
+      <c r="L2">
+        <v>30.89</v>
+      </c>
+      <c r="M2">
+        <v>33.22</v>
+      </c>
+      <c r="N2">
+        <v>33.69</v>
+      </c>
+      <c r="O2">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="P2">
+        <v>21.74</v>
+      </c>
+      <c r="Q2">
+        <v>20.39</v>
+      </c>
+      <c r="R2">
+        <v>24.69</v>
+      </c>
+      <c r="S2">
+        <v>25.83</v>
+      </c>
+      <c r="T2">
+        <v>23.03</v>
+      </c>
+      <c r="U2">
+        <v>25.6</v>
+      </c>
+      <c r="V2">
         <v>23.82</v>
       </c>
+      <c r="W2">
+        <v>31.41</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.66</v>
+      </c>
+      <c r="C3">
+        <v>12.76</v>
+      </c>
+      <c r="D3">
+        <v>16.64</v>
+      </c>
+      <c r="E3">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="F3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G3">
+        <v>22.35</v>
+      </c>
+      <c r="H3">
+        <v>22.04</v>
+      </c>
+      <c r="I3">
+        <v>28.71</v>
+      </c>
+      <c r="J3">
+        <v>21.35</v>
+      </c>
+      <c r="K3">
+        <v>27.99</v>
+      </c>
+      <c r="L3">
+        <v>31.86</v>
+      </c>
+      <c r="M3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N3">
+        <v>35.44</v>
+      </c>
+      <c r="O3">
+        <v>33.93</v>
+      </c>
+      <c r="P3">
+        <v>23.25</v>
+      </c>
+      <c r="Q3">
+        <v>19.38</v>
+      </c>
+      <c r="R3">
+        <v>23.88</v>
+      </c>
+      <c r="S3">
+        <v>25.78</v>
+      </c>
+      <c r="T3">
+        <v>23.87</v>
+      </c>
+      <c r="U3">
+        <v>24.51</v>
+      </c>
+      <c r="V3">
         <v>25.53</v>
       </c>
+      <c r="W3">
+        <v>33.840000000000003</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>14.49</v>
+      </c>
+      <c r="C4">
+        <v>13.04</v>
+      </c>
+      <c r="D4">
+        <v>17.79</v>
+      </c>
+      <c r="E4">
+        <v>18.11</v>
+      </c>
+      <c r="F4">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="G4">
+        <v>22.16</v>
+      </c>
+      <c r="H4">
+        <v>23.13</v>
+      </c>
+      <c r="I4">
+        <v>30.04</v>
+      </c>
+      <c r="J4">
+        <v>21.05</v>
+      </c>
+      <c r="K4">
+        <v>29.39</v>
+      </c>
+      <c r="L4">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="M4">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="N4">
+        <v>35.36</v>
+      </c>
+      <c r="O4">
+        <v>34.26</v>
+      </c>
+      <c r="P4">
+        <v>24.99</v>
+      </c>
+      <c r="Q4">
+        <v>21.02</v>
+      </c>
+      <c r="R4">
+        <v>23.42</v>
+      </c>
+      <c r="S4">
+        <v>25.8</v>
+      </c>
+      <c r="T4">
+        <v>25.8</v>
+      </c>
+      <c r="U4">
+        <v>23.6</v>
+      </c>
+      <c r="V4">
         <v>27.7</v>
       </c>
+      <c r="W4">
+        <v>39.119999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>14.46</v>
+      </c>
+      <c r="C5">
+        <v>14.6</v>
+      </c>
+      <c r="D5">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="E5">
+        <v>18.48</v>
+      </c>
+      <c r="F5">
+        <v>21.94</v>
+      </c>
+      <c r="G5">
+        <v>24.48</v>
+      </c>
+      <c r="H5">
+        <v>25.53</v>
+      </c>
+      <c r="I5">
+        <v>31.69</v>
+      </c>
+      <c r="J5">
+        <v>21.57</v>
+      </c>
+      <c r="K5">
+        <v>30.56</v>
+      </c>
+      <c r="L5">
+        <v>35.47</v>
+      </c>
+      <c r="M5">
+        <v>37.56</v>
+      </c>
+      <c r="N5">
+        <v>34.450000000000003</v>
+      </c>
+      <c r="O5">
+        <v>35.08</v>
+      </c>
+      <c r="P5">
+        <v>25.55</v>
+      </c>
+      <c r="Q5">
+        <v>22.25</v>
+      </c>
+      <c r="R5">
+        <v>24.2</v>
+      </c>
+      <c r="S5">
+        <v>27.1</v>
+      </c>
+      <c r="T5">
+        <v>27.82</v>
+      </c>
+      <c r="U5">
+        <v>18.97</v>
+      </c>
+      <c r="V5">
         <v>28.03</v>
       </c>
+      <c r="W5">
+        <v>38.83</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>15.76</v>
+      </c>
+      <c r="C6">
+        <v>14.65</v>
+      </c>
+      <c r="D6">
+        <v>15.92</v>
+      </c>
+      <c r="E6">
+        <v>18.89</v>
+      </c>
+      <c r="F6">
+        <v>22.48</v>
+      </c>
+      <c r="G6">
+        <v>26.85</v>
+      </c>
+      <c r="H6">
+        <v>27.59</v>
+      </c>
+      <c r="I6">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="J6">
+        <v>22.81</v>
+      </c>
+      <c r="K6">
+        <v>29.84</v>
+      </c>
+      <c r="L6">
+        <v>35.61</v>
+      </c>
+      <c r="M6">
+        <v>35.85</v>
+      </c>
+      <c r="N6">
+        <v>34.6</v>
+      </c>
+      <c r="O6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="P6">
+        <v>26.86</v>
+      </c>
+      <c r="Q6">
+        <v>23.1</v>
+      </c>
+      <c r="R6">
+        <v>23.64</v>
+      </c>
+      <c r="S6">
+        <v>28.29</v>
+      </c>
+      <c r="T6">
+        <v>27.88</v>
+      </c>
+      <c r="U6">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="V6">
         <v>28.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>15.76</v>
+      </c>
+      <c r="C7">
+        <v>14.49</v>
+      </c>
+      <c r="D7">
+        <v>15.07</v>
+      </c>
+      <c r="E7">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F7">
+        <v>22.22</v>
+      </c>
+      <c r="G7">
+        <v>26.77</v>
+      </c>
+      <c r="H7">
+        <v>28.69</v>
+      </c>
+      <c r="I7">
+        <v>35.51</v>
+      </c>
+      <c r="J7">
+        <v>23.91</v>
+      </c>
+      <c r="K7">
+        <v>28.03</v>
+      </c>
+      <c r="L7">
+        <v>34.76</v>
+      </c>
+      <c r="M7">
+        <v>33.72</v>
+      </c>
+      <c r="N7">
+        <v>34.25</v>
+      </c>
+      <c r="O7">
+        <v>35.36</v>
+      </c>
+      <c r="P7">
+        <v>27.1</v>
+      </c>
+      <c r="Q7">
+        <v>23.66</v>
+      </c>
+      <c r="R7">
+        <v>23.33</v>
+      </c>
+      <c r="S7">
+        <v>27.95</v>
+      </c>
+      <c r="T7">
+        <v>26.44</v>
+      </c>
+      <c r="U7">
+        <v>21.08</v>
+      </c>
+      <c r="V7">
         <v>28.85</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>15.12</v>
+      </c>
+      <c r="C8">
+        <v>14.86</v>
+      </c>
+      <c r="D8">
+        <v>15.1</v>
+      </c>
+      <c r="E8">
+        <v>19.16</v>
+      </c>
+      <c r="F8">
+        <v>22.23</v>
+      </c>
+      <c r="G8">
+        <v>26.58</v>
+      </c>
+      <c r="H8">
+        <v>28.41</v>
+      </c>
+      <c r="I8">
+        <v>36.42</v>
+      </c>
+      <c r="J8">
+        <v>26.56</v>
+      </c>
+      <c r="K8">
+        <v>27.93</v>
+      </c>
+      <c r="L8">
+        <v>34.97</v>
+      </c>
+      <c r="M8">
+        <v>34.71</v>
+      </c>
+      <c r="N8">
+        <v>35.64</v>
+      </c>
+      <c r="O8">
+        <v>35.61</v>
+      </c>
+      <c r="P8">
+        <v>27.14</v>
+      </c>
+      <c r="Q8">
+        <v>22.53</v>
+      </c>
+      <c r="R8">
+        <v>23.15</v>
+      </c>
+      <c r="S8">
+        <v>27.87</v>
+      </c>
+      <c r="T8">
+        <v>27.13</v>
+      </c>
+      <c r="U8">
+        <v>22.55</v>
+      </c>
+      <c r="V8">
         <v>29.49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>14.32</v>
+      </c>
+      <c r="C9">
+        <v>15.68</v>
+      </c>
+      <c r="D9">
+        <v>15.54</v>
+      </c>
+      <c r="E9">
+        <v>19.04</v>
+      </c>
+      <c r="F9">
+        <v>22.89</v>
+      </c>
+      <c r="G9">
+        <v>28.12</v>
+      </c>
+      <c r="H9">
+        <v>27.91</v>
+      </c>
+      <c r="I9">
+        <v>35.78</v>
+      </c>
+      <c r="J9">
+        <v>26.58</v>
+      </c>
+      <c r="K9">
+        <v>28.13</v>
+      </c>
+      <c r="L9">
+        <v>35.14</v>
+      </c>
+      <c r="M9">
+        <v>35.28</v>
+      </c>
+      <c r="N9">
+        <v>36.33</v>
+      </c>
+      <c r="O9">
+        <v>34.03</v>
+      </c>
+      <c r="P9">
+        <v>25.2</v>
+      </c>
+      <c r="Q9">
+        <v>22.34</v>
+      </c>
+      <c r="R9">
+        <v>23.73</v>
+      </c>
+      <c r="S9">
+        <v>27.95</v>
+      </c>
+      <c r="T9">
+        <v>26.07</v>
+      </c>
+      <c r="U9">
+        <v>22.33</v>
+      </c>
+      <c r="V9">
         <v>29.91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>14.5</v>
+      </c>
+      <c r="C10">
+        <v>15.63</v>
+      </c>
+      <c r="D10">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="E10">
+        <v>18.91</v>
+      </c>
+      <c r="F10">
+        <v>25.27</v>
+      </c>
+      <c r="G10">
+        <v>27.29</v>
+      </c>
+      <c r="H10">
+        <v>27.16</v>
+      </c>
+      <c r="I10">
+        <v>34.83</v>
+      </c>
+      <c r="J10">
+        <v>26.71</v>
+      </c>
+      <c r="K10">
+        <v>27.22</v>
+      </c>
+      <c r="L10">
+        <v>34.74</v>
+      </c>
+      <c r="M10">
+        <v>37.67</v>
+      </c>
+      <c r="N10">
+        <v>36.03</v>
+      </c>
+      <c r="O10">
+        <v>33.11</v>
+      </c>
+      <c r="P10">
+        <v>23.27</v>
+      </c>
+      <c r="Q10">
+        <v>22.99</v>
+      </c>
+      <c r="R10">
+        <v>25.32</v>
+      </c>
+      <c r="S10">
+        <v>28.21</v>
+      </c>
+      <c r="T10">
+        <v>25.85</v>
+      </c>
+      <c r="U10">
+        <v>22.14</v>
+      </c>
+      <c r="V10">
         <v>30.23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>14.48</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E11">
+        <v>19.48</v>
+      </c>
+      <c r="F11">
+        <v>27.22</v>
+      </c>
+      <c r="G11">
+        <v>24.73</v>
+      </c>
+      <c r="H11">
+        <v>27.34</v>
+      </c>
+      <c r="I11">
+        <v>31.29</v>
+      </c>
+      <c r="J11">
+        <v>26.02</v>
+      </c>
+      <c r="K11">
+        <v>28.8</v>
+      </c>
+      <c r="L11">
+        <v>34.11</v>
+      </c>
+      <c r="M11">
+        <v>36.69</v>
+      </c>
+      <c r="N11">
+        <v>34.14</v>
+      </c>
+      <c r="O11">
+        <v>31.35</v>
+      </c>
+      <c r="P11">
+        <v>22.86</v>
+      </c>
+      <c r="Q11">
+        <v>23.36</v>
+      </c>
+      <c r="R11">
+        <v>24.44</v>
+      </c>
+      <c r="S11">
+        <v>28.54</v>
+      </c>
+      <c r="T11">
+        <v>25.61</v>
+      </c>
+      <c r="U11">
+        <v>22.3</v>
+      </c>
+      <c r="V11">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>13.99</v>
+      </c>
+      <c r="C12">
+        <v>16.12</v>
+      </c>
+      <c r="D12">
+        <v>16.28</v>
+      </c>
+      <c r="E12">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="F12">
+        <v>25.95</v>
+      </c>
+      <c r="G12">
+        <v>23.18</v>
+      </c>
+      <c r="H12">
+        <v>28.24</v>
+      </c>
+      <c r="I12">
+        <v>26.29</v>
+      </c>
+      <c r="J12">
+        <v>27.73</v>
+      </c>
+      <c r="K12">
+        <v>28.96</v>
+      </c>
+      <c r="L12">
+        <v>34.56</v>
+      </c>
+      <c r="M12">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="N12">
+        <v>32.96</v>
+      </c>
+      <c r="O12">
+        <v>29.38</v>
+      </c>
+      <c r="P12">
+        <v>21.97</v>
+      </c>
+      <c r="Q12">
+        <v>22.68</v>
+      </c>
+      <c r="R12">
+        <v>25.37</v>
+      </c>
+      <c r="S12">
+        <v>25.87</v>
+      </c>
+      <c r="T12">
+        <v>25.54</v>
+      </c>
+      <c r="U12">
+        <v>21.21</v>
+      </c>
+      <c r="V12">
         <v>31.55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>13.21</v>
+      </c>
+      <c r="C13">
+        <v>15.9</v>
+      </c>
+      <c r="D13">
+        <v>15.89</v>
+      </c>
+      <c r="E13">
+        <v>20.03</v>
+      </c>
+      <c r="F13">
+        <v>23.29</v>
+      </c>
+      <c r="G13">
+        <v>23.15</v>
+      </c>
+      <c r="H13">
+        <v>29.04</v>
+      </c>
+      <c r="I13">
+        <v>22.55</v>
+      </c>
+      <c r="J13">
+        <v>27.42</v>
+      </c>
+      <c r="K13">
+        <v>29.82</v>
+      </c>
+      <c r="L13">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="M13">
+        <v>33.869999999999997</v>
+      </c>
+      <c r="N13">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="O13">
+        <v>25.88</v>
+      </c>
+      <c r="P13">
+        <v>21.03</v>
+      </c>
+      <c r="Q13">
+        <v>23.61</v>
+      </c>
+      <c r="R13">
+        <v>25.11</v>
+      </c>
+      <c r="S13">
+        <v>23.81</v>
+      </c>
+      <c r="T13">
+        <v>25.39</v>
+      </c>
+      <c r="U13">
+        <v>22.76</v>
+      </c>
+      <c r="V13">
         <v>29.82</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>